--- a/config/config_examples_stand.xlsx
+++ b/config/config_examples_stand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95847890-B0A5-4A17-9DEB-9D0FE010BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EABF9-0D19-40A2-8E85-DD38046E9C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,9 +637,9 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,6 @@
       <c r="B7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
@@ -1073,6 +1072,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/config_examples_stand.xlsx
+++ b/config/config_examples_stand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EABF9-0D19-40A2-8E85-DD38046E9C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35986883-9699-4419-ACDC-A0EBD1504FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>sc1.lidar.z01.a0.\d{8}.\d{6}.user4.nc</t>
+  </si>
+  <si>
+    <t>sa1.lidar.z05.a2.\d{8}.\d{6}.user5.nc</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>a2</t>
   </si>
 </sst>
 </file>
@@ -637,9 +646,9 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +668,9 @@
       <c r="B1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -669,7 +680,9 @@
       <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -680,7 +693,9 @@
       <c r="B3" s="22">
         <v>20230101</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="22">
+        <v>20230101</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -691,7 +706,9 @@
       <c r="B4" s="22">
         <v>20240101</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="22">
+        <v>20250101</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
@@ -702,7 +719,9 @@
       <c r="B5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -714,7 +733,9 @@
         <f>270-22</f>
         <v>248</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="23">
+        <v>90</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
@@ -725,7 +746,9 @@
       <c r="B7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,8 +758,9 @@
       <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -746,8 +770,9 @@
       <c r="B9" s="23">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -757,8 +782,9 @@
       <c r="B10" s="24">
         <v>-0.1</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="24">
+        <v>-3</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -768,8 +794,9 @@
       <c r="B11" s="24">
         <v>0.1</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="24">
+        <v>3</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,8 +806,9 @@
       <c r="B12" s="24">
         <v>0.9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="24">
+        <v>-0.1</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -790,8 +818,9 @@
       <c r="B13" s="24">
         <v>2.1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -801,8 +830,9 @@
       <c r="B14" s="25">
         <v>0.25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="25">
+        <v>0.25</v>
+      </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,8 +842,9 @@
       <c r="B15" s="25">
         <v>0.1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="25">
+        <v>0.1</v>
+      </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,8 +854,9 @@
       <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="26">
+        <v>2</v>
+      </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,8 +866,9 @@
       <c r="B17" s="27">
         <v>200</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="27">
+        <v>200</v>
+      </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -845,8 +878,9 @@
       <c r="B18" s="27">
         <v>200</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="27">
+        <v>200</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -856,8 +890,9 @@
       <c r="B19" s="27">
         <v>50</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="27">
+        <v>50</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -867,8 +902,9 @@
       <c r="B20" s="27">
         <v>600</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="27">
+        <v>600</v>
+      </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,8 +914,9 @@
       <c r="B21" s="23">
         <v>50</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="23">
+        <v>50</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -889,8 +926,9 @@
       <c r="B22" s="23">
         <v>5000</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="23">
+        <v>5000</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -900,8 +938,9 @@
       <c r="B23" s="23">
         <v>-25</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="23">
+        <v>-25</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -911,8 +950,9 @@
       <c r="B24" s="23">
         <v>50</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="23">
+        <v>50</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -922,8 +962,9 @@
       <c r="B25" s="26">
         <v>0.1</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="26">
+        <v>0.1</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="4"/>
@@ -944,8 +985,9 @@
       <c r="B26" s="23">
         <v>30</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="23">
+        <v>30</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -955,8 +997,9 @@
       <c r="B27" s="23">
         <v>20</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="23">
+        <v>20</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -966,8 +1009,9 @@
       <c r="B28" s="26">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="26">
+        <v>1</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -977,8 +1021,9 @@
       <c r="B29" s="26">
         <v>1</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="26">
+        <v>1</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -988,8 +1033,9 @@
       <c r="B30" s="23">
         <v>30</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="23">
+        <v>300</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,8 +1045,9 @@
       <c r="B31" s="25">
         <v>0.5</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="25">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1010,8 +1057,9 @@
       <c r="B32" s="27">
         <v>25</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="27">
+        <v>25</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,8 +1069,9 @@
       <c r="B33" s="27">
         <v>1</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1032,8 +1081,9 @@
       <c r="B34" s="27">
         <v>99</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="27">
+        <v>99</v>
+      </c>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,8 +1093,9 @@
       <c r="B35" s="28">
         <v>1E-4</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="28">
+        <v>1E-4</v>
+      </c>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,8 +1105,9 @@
       <c r="B36" s="28">
         <v>0.1</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1065,8 +1117,9 @@
       <c r="B37" s="24">
         <v>0.25</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="24">
+        <v>0.25</v>
+      </c>
       <c r="E37" s="6"/>
     </row>
   </sheetData>

--- a/config/config_examples_stand.xlsx
+++ b/config/config_examples_stand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35986883-9699-4419-ACDC-A0EBD1504FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B34C12A-6EE1-4361-A796-B1342D758228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>a2</t>
+  </si>
+  <si>
+    <t>vad</t>
+  </si>
+  <si>
+    <t>sa1.lidar.z05.vad.a2.\d{8}.\d{6}.user5.nc</t>
   </si>
 </sst>
 </file>
@@ -646,9 +652,9 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +677,9 @@
       <c r="C1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -683,7 +691,9 @@
       <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -696,7 +706,9 @@
       <c r="C3" s="22">
         <v>20230101</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="22">
+        <v>20230101</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,7 +721,9 @@
       <c r="C4" s="22">
         <v>20250101</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="22">
+        <v>20250101</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -722,7 +736,9 @@
       <c r="C5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,7 +752,9 @@
       <c r="C6" s="23">
         <v>90</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,6 +767,9 @@
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -761,6 +782,9 @@
       <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,6 +797,9 @@
       <c r="C9" s="23">
         <v>0</v>
       </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,6 +812,9 @@
       <c r="C10" s="24">
         <v>-3</v>
       </c>
+      <c r="D10" s="24">
+        <v>-31</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,6 +827,9 @@
       <c r="C11" s="24">
         <v>3</v>
       </c>
+      <c r="D11" s="24">
+        <v>31</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,6 +842,9 @@
       <c r="C12" s="24">
         <v>-0.1</v>
       </c>
+      <c r="D12" s="24">
+        <v>-0.1</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -821,6 +857,9 @@
       <c r="C13" s="24">
         <v>1.5</v>
       </c>
+      <c r="D13" s="24">
+        <v>0.1</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -833,6 +872,9 @@
       <c r="C14" s="25">
         <v>0.25</v>
       </c>
+      <c r="D14" s="25">
+        <v>0.25</v>
+      </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -845,6 +887,9 @@
       <c r="C15" s="25">
         <v>0.1</v>
       </c>
+      <c r="D15" s="25">
+        <v>0.1</v>
+      </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,6 +902,9 @@
       <c r="C16" s="26">
         <v>2</v>
       </c>
+      <c r="D16" s="26">
+        <v>2</v>
+      </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -869,6 +917,9 @@
       <c r="C17" s="27">
         <v>200</v>
       </c>
+      <c r="D17" s="27">
+        <v>200</v>
+      </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -881,6 +932,9 @@
       <c r="C18" s="27">
         <v>200</v>
       </c>
+      <c r="D18" s="27">
+        <v>200</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,6 +947,9 @@
       <c r="C19" s="27">
         <v>50</v>
       </c>
+      <c r="D19" s="27">
+        <v>50</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -905,6 +962,9 @@
       <c r="C20" s="27">
         <v>600</v>
       </c>
+      <c r="D20" s="27">
+        <v>600</v>
+      </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -917,6 +977,9 @@
       <c r="C21" s="23">
         <v>50</v>
       </c>
+      <c r="D21" s="23">
+        <v>50</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -929,6 +992,9 @@
       <c r="C22" s="23">
         <v>5000</v>
       </c>
+      <c r="D22" s="23">
+        <v>5000</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,6 +1007,9 @@
       <c r="C23" s="23">
         <v>-25</v>
       </c>
+      <c r="D23" s="23">
+        <v>-25</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -953,6 +1022,9 @@
       <c r="C24" s="23">
         <v>50</v>
       </c>
+      <c r="D24" s="23">
+        <v>50</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -963,6 +1035,9 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="26">
         <v>0.1</v>
       </c>
       <c r="E25" s="12"/>
@@ -988,6 +1063,9 @@
       <c r="C26" s="23">
         <v>30</v>
       </c>
+      <c r="D26" s="23">
+        <v>30</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1000,6 +1078,9 @@
       <c r="C27" s="23">
         <v>20</v>
       </c>
+      <c r="D27" s="23">
+        <v>20</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1012,6 +1093,9 @@
       <c r="C28" s="26">
         <v>1</v>
       </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -1024,6 +1108,9 @@
       <c r="C29" s="26">
         <v>1</v>
       </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,6 +1123,9 @@
       <c r="C30" s="23">
         <v>300</v>
       </c>
+      <c r="D30" s="23">
+        <v>100</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,6 +1138,9 @@
       <c r="C31" s="25">
         <v>0.5</v>
       </c>
+      <c r="D31" s="25">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1060,6 +1153,9 @@
       <c r="C32" s="27">
         <v>25</v>
       </c>
+      <c r="D32" s="27">
+        <v>25</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,6 +1168,9 @@
       <c r="C33" s="27">
         <v>1</v>
       </c>
+      <c r="D33" s="27">
+        <v>1</v>
+      </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1084,6 +1183,9 @@
       <c r="C34" s="27">
         <v>99</v>
       </c>
+      <c r="D34" s="27">
+        <v>99</v>
+      </c>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,6 +1198,9 @@
       <c r="C35" s="28">
         <v>1E-4</v>
       </c>
+      <c r="D35" s="28">
+        <v>1E-4</v>
+      </c>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1108,6 +1213,9 @@
       <c r="C36" s="28">
         <v>0.1</v>
       </c>
+      <c r="D36" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1118,6 +1226,9 @@
         <v>0.25</v>
       </c>
       <c r="C37" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="24">
         <v>0.25</v>
       </c>
       <c r="E37" s="6"/>

--- a/config/config_examples_stand.xlsx
+++ b/config/config_examples_stand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B34C12A-6EE1-4361-A796-B1342D758228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B92B34-AA48-4B1A-A918-BF17E33687B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>sa1.lidar.z05.vad.a2.\d{8}.\d{6}.user5.nc</t>
+  </si>
+  <si>
+    <t>sa5.lidar.z03.a0.\d{8}.\d{6}.user5.nc</t>
+  </si>
+  <si>
+    <t>stare</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,18 +282,12 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -303,17 +303,11 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,7 +648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,377 +665,428 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>20230101</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>20230101</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>20230101</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="18">
+        <v>20230101</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>20240101</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>20250101</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>20250101</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="18">
+        <v>20250101</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="19">
         <f>270-22</f>
         <v>248</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>90</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>0</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <v>0</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>-0.1</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>-3</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>-31</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="20">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B11" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>31</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>0.9</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <v>-0.1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>-0.1</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="20">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>2.1</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>1.5</v>
       </c>
-      <c r="D13" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="21">
         <v>0.25</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>0.25</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="21">
         <v>0.25</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="B15" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>2</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>2</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>2</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="E16" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="23">
         <v>200</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <v>200</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="23">
         <v>200</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="E17" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="23">
         <v>200</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="23">
         <v>200</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="23">
         <v>200</v>
       </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="E18" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="23">
         <v>50</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>50</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="23">
         <v>50</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="E19" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="23">
         <v>600</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>600</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="23">
         <v>600</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="23">
+        <v>600</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>50</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>50</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <v>50</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="19">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="19">
         <v>5000</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="19">
         <v>5000</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="19">
         <v>5000</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="19">
+        <v>5000</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="19">
         <v>-25</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="19">
         <v>-25</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>-25</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="19">
+        <v>-25</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="19">
         <v>50</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="19">
         <v>50</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="19">
         <v>50</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="19">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1057,181 +1102,205 @@
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <v>30</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="19">
         <v>30</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
         <v>30</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="19">
         <v>20</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="19">
         <v>20</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>20</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="19">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>1</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>1</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <v>1</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="19">
         <v>30</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="19">
         <v>300</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="19">
         <v>100</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="21">
         <v>0.5</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="21">
         <v>0.5</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="21">
         <v>0.5</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="E31" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="23">
         <v>25</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <v>25</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="23">
         <v>25</v>
       </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="E32" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="23">
         <v>1</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="23">
         <v>1</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="23">
         <v>1</v>
       </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="23">
         <v>99</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="23">
         <v>99</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="23">
         <v>99</v>
       </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="E34" s="23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="24">
         <v>1E-4</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="24">
         <v>1E-4</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="24">
         <v>1E-4</v>
       </c>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="E35" s="24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="D36" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>0.25</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="20">
         <v>0.25</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="20">
         <v>0.25</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="20">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
